--- a/Results/2020/Primaries/Republicans.xlsx
+++ b/Results/2020/Primaries/Republicans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0E860-17C3-4CF5-8C84-AA91C9A322DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4025765D-550C-41A1-B789-E03067539A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="counties" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">counties!$A$1:$O$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">national!$A$1:$U$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">national!$A$1:$V$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">original!$A$1:$O$106</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>walsh</t>
+  </si>
+  <si>
+    <t>delg</t>
   </si>
 </sst>
 </file>
@@ -6781,9 +6784,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590B1E82-8091-41B0-BD60-8CA737A0639A}">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6792,27 +6795,27 @@
   <cols>
     <col min="1" max="3" width="10.69921875" style="8"/>
     <col min="4" max="4" width="10.69921875" style="9"/>
-    <col min="5" max="5" width="10.69921875" style="6"/>
-    <col min="6" max="6" width="10.69921875" style="5"/>
-    <col min="7" max="7" width="10.69921875" style="6"/>
-    <col min="8" max="8" width="10.69921875" style="2"/>
-    <col min="9" max="9" width="10.69921875" style="6"/>
-    <col min="10" max="10" width="10.69921875" style="5"/>
-    <col min="11" max="11" width="10.69921875" style="6"/>
-    <col min="12" max="12" width="10.69921875" style="2"/>
-    <col min="13" max="13" width="10.69921875" style="6"/>
-    <col min="14" max="14" width="10.69921875" style="5"/>
-    <col min="15" max="15" width="10.69921875" style="6"/>
-    <col min="16" max="16" width="10.69921875" style="2"/>
-    <col min="17" max="17" width="10.69921875" style="6"/>
-    <col min="18" max="18" width="10.69921875" style="5"/>
-    <col min="19" max="19" width="10.69921875" style="6"/>
-    <col min="20" max="20" width="10.69921875" style="2"/>
-    <col min="21" max="21" width="10.69921875" style="6"/>
-    <col min="22" max="16384" width="10.69921875" style="5"/>
+    <col min="5" max="6" width="10.69921875" style="6"/>
+    <col min="7" max="7" width="10.69921875" style="5"/>
+    <col min="8" max="8" width="10.69921875" style="6"/>
+    <col min="9" max="9" width="10.69921875" style="2"/>
+    <col min="10" max="10" width="10.69921875" style="6"/>
+    <col min="11" max="11" width="10.69921875" style="5"/>
+    <col min="12" max="12" width="10.69921875" style="6"/>
+    <col min="13" max="13" width="10.69921875" style="2"/>
+    <col min="14" max="14" width="10.69921875" style="6"/>
+    <col min="15" max="15" width="10.69921875" style="5"/>
+    <col min="16" max="16" width="10.69921875" style="6"/>
+    <col min="17" max="17" width="10.69921875" style="2"/>
+    <col min="18" max="18" width="10.69921875" style="6"/>
+    <col min="19" max="19" width="10.69921875" style="5"/>
+    <col min="20" max="20" width="10.69921875" style="6"/>
+    <col min="21" max="21" width="10.69921875" style="2"/>
+    <col min="22" max="22" width="10.69921875" style="6"/>
+    <col min="23" max="16384" width="10.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6828,56 +6831,59 @@
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -6893,48 +6899,63 @@
       <c r="E2" s="6">
         <v>32389</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>31464</v>
       </c>
-      <c r="H2" s="2">
-        <f>G2/E2</f>
+      <c r="I2" s="2">
+        <f>H2/E2</f>
         <v>0.97144092130044146</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6">
+        <v>39</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>426</v>
       </c>
-      <c r="L2" s="2">
-        <f>K2/E2</f>
+      <c r="M2" s="2">
+        <f>L2/E2</f>
         <v>1.3152613541634505E-2</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <v>348</v>
       </c>
-      <c r="P2" s="2">
-        <f>O2/E2</f>
+      <c r="Q2" s="2">
+        <f>P2/E2</f>
         <v>1.0744388526969033E-2</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="6">
+      <c r="T2" s="6">
         <v>151</v>
       </c>
-      <c r="T2" s="2">
-        <f>S2/E2</f>
+      <c r="U2" s="2">
+        <f>T2/E2</f>
         <v>4.6620766309549535E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
@@ -6948,7 +6969,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
@@ -6962,7 +6983,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
@@ -6976,7 +6997,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
@@ -6990,7 +7011,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>67</v>
       </c>
@@ -7004,7 +7025,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
@@ -7018,7 +7039,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>61</v>
       </c>
@@ -7032,7 +7053,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
@@ -7046,7 +7067,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -7060,7 +7081,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>53</v>
       </c>
@@ -7074,7 +7095,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
@@ -7088,7 +7109,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
@@ -7102,7 +7123,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
@@ -7116,7 +7137,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>55</v>
       </c>
@@ -7705,7 +7726,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U57" xr:uid="{9B501CB7-826E-4260-A530-57F0491828F7}"/>
+  <autoFilter ref="A1:V57" xr:uid="{9B501CB7-826E-4260-A530-57F0491828F7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7715,7 +7736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F35F74-FDAD-46CB-85ED-D8ECAAB7193A}">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/Results/2020/Primaries/Republicans.xlsx
+++ b/Results/2020/Primaries/Republicans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F372238F-2E41-4A24-817A-AA731ABA02A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4921316-F325-4022-BA00-45160AA5CB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1434,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590B1E82-8091-41B0-BD60-8CA737A0639A}">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1461,11 +1461,11 @@
     <col min="19" max="19" width="10.69921875" style="5"/>
     <col min="20" max="20" width="10.69921875" style="6"/>
     <col min="21" max="21" width="10.69921875" style="2"/>
-    <col min="22" max="22" width="10.69921875" style="6"/>
-    <col min="23" max="16384" width="10.69921875" style="5"/>
+    <col min="22" max="23" width="10.69921875" style="6"/>
+    <col min="24" max="16384" width="10.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1532,8 +1532,9 @@
       <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>52</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>56</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>58</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>50</v>
       </c>

--- a/Results/2020/Primaries/Republicans.xlsx
+++ b/Results/2020/Primaries/Republicans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4921316-F325-4022-BA00-45160AA5CB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BC5C04-F77C-441D-A495-36A43F86B5DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="207">
   <si>
     <t>id</t>
   </si>
@@ -530,6 +530,132 @@
   </si>
   <si>
     <t>האם מסתכם?</t>
+  </si>
+  <si>
+    <t>cand5</t>
+  </si>
+  <si>
+    <t>vote5</t>
+  </si>
+  <si>
+    <t>pcnt5</t>
+  </si>
+  <si>
+    <t>cand6</t>
+  </si>
+  <si>
+    <t>vote6</t>
+  </si>
+  <si>
+    <t>pcnt6</t>
+  </si>
+  <si>
+    <t>cand7</t>
+  </si>
+  <si>
+    <t>vote7</t>
+  </si>
+  <si>
+    <t>pcnt7</t>
+  </si>
+  <si>
+    <t>cand8</t>
+  </si>
+  <si>
+    <t>vote8</t>
+  </si>
+  <si>
+    <t>pcnt8</t>
+  </si>
+  <si>
+    <t>cand9</t>
+  </si>
+  <si>
+    <t>vote9</t>
+  </si>
+  <si>
+    <t>pcnt9</t>
+  </si>
+  <si>
+    <t>cand10</t>
+  </si>
+  <si>
+    <t>vote10</t>
+  </si>
+  <si>
+    <t>pcnt10</t>
+  </si>
+  <si>
+    <t>cand11</t>
+  </si>
+  <si>
+    <t>vote11</t>
+  </si>
+  <si>
+    <t>pcnt11</t>
+  </si>
+  <si>
+    <t>cand12</t>
+  </si>
+  <si>
+    <t>vote12</t>
+  </si>
+  <si>
+    <t>pcnt12</t>
+  </si>
+  <si>
+    <t>cand13</t>
+  </si>
+  <si>
+    <t>vote13</t>
+  </si>
+  <si>
+    <t>pcnt13</t>
+  </si>
+  <si>
+    <t>cand14</t>
+  </si>
+  <si>
+    <t>vote14</t>
+  </si>
+  <si>
+    <t>pcnt14</t>
+  </si>
+  <si>
+    <t>cand15</t>
+  </si>
+  <si>
+    <t>vote15</t>
+  </si>
+  <si>
+    <t>pcnt15</t>
+  </si>
+  <si>
+    <t>cand16</t>
+  </si>
+  <si>
+    <t>vote16</t>
+  </si>
+  <si>
+    <t>pcnt16</t>
+  </si>
+  <si>
+    <t>cand17</t>
+  </si>
+  <si>
+    <t>vote17</t>
+  </si>
+  <si>
+    <t>pcnt17</t>
+  </si>
+  <si>
+    <t>cand18</t>
+  </si>
+  <si>
+    <t>vote18</t>
+  </si>
+  <si>
+    <t>pcnt18</t>
   </si>
 </sst>
 </file>
@@ -1667,10 +1793,10 @@
     </row>
     <row r="4" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>29</v>
@@ -1681,10 +1807,10 @@
     </row>
     <row r="5" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>29</v>
@@ -1695,10 +1821,10 @@
     </row>
     <row r="6" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>29</v>
@@ -1709,10 +1835,10 @@
     </row>
     <row r="7" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>29</v>
@@ -1723,10 +1849,10 @@
     </row>
     <row r="8" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>29</v>
@@ -1737,10 +1863,10 @@
     </row>
     <row r="9" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>29</v>
@@ -1751,10 +1877,10 @@
     </row>
     <row r="10" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>29</v>
@@ -1765,10 +1891,10 @@
     </row>
     <row r="11" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>29</v>
@@ -1779,10 +1905,10 @@
     </row>
     <row r="12" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>29</v>
@@ -1793,10 +1919,10 @@
     </row>
     <row r="13" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>29</v>
@@ -1807,10 +1933,10 @@
     </row>
     <row r="14" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>29</v>
@@ -1821,10 +1947,10 @@
     </row>
     <row r="15" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>29</v>
@@ -1835,10 +1961,10 @@
     </row>
     <row r="16" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>29</v>
@@ -1863,10 +1989,10 @@
     </row>
     <row r="18" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>29</v>
@@ -1905,10 +2031,10 @@
     </row>
     <row r="21" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>29</v>
@@ -1947,13 +2073,13 @@
     </row>
     <row r="24" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D24" s="9">
         <v>43907</v>
@@ -1961,10 +2087,10 @@
     </row>
     <row r="25" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>29</v>
@@ -1975,13 +2101,13 @@
     </row>
     <row r="26" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D26" s="9">
         <v>43907</v>
@@ -1989,10 +2115,10 @@
     </row>
     <row r="27" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>29</v>
@@ -2073,10 +2199,10 @@
     </row>
     <row r="33" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>29</v>
@@ -2087,10 +2213,10 @@
     </row>
     <row r="34" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>29</v>
@@ -2101,10 +2227,10 @@
     </row>
     <row r="35" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>29</v>
@@ -2115,10 +2241,10 @@
     </row>
     <row r="36" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>29</v>
@@ -2129,10 +2255,10 @@
     </row>
     <row r="37" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>29</v>
@@ -2185,10 +2311,10 @@
     </row>
     <row r="41" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>29</v>
@@ -2199,10 +2325,10 @@
     </row>
     <row r="42" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>29</v>
@@ -2213,10 +2339,10 @@
     </row>
     <row r="43" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>29</v>
@@ -2227,10 +2353,10 @@
     </row>
     <row r="44" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>29</v>
@@ -2241,10 +2367,10 @@
     </row>
     <row r="45" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>29</v>
@@ -2255,10 +2381,10 @@
     </row>
     <row r="46" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>29</v>
@@ -2269,10 +2395,10 @@
     </row>
     <row r="47" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>29</v>
@@ -2283,10 +2409,10 @@
     </row>
     <row r="48" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>29</v>
@@ -2297,10 +2423,10 @@
     </row>
     <row r="49" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>29</v>
@@ -2367,10 +2493,10 @@
     </row>
     <row r="54" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>141</v>
@@ -2395,10 +2521,10 @@
     </row>
     <row r="56" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>141</v>
@@ -2409,10 +2535,10 @@
     </row>
     <row r="57" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>141</v>
@@ -2422,7 +2548,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V57" xr:uid="{9B501CB7-826E-4260-A530-57F0491828F7}"/>
+  <autoFilter ref="A1:V57" xr:uid="{9B501CB7-826E-4260-A530-57F0491828F7}">
+    <sortState ref="A2:V57">
+      <sortCondition ref="D2:D57"/>
+      <sortCondition ref="A2:A57"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9404,11 +9535,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F35F74-FDAD-46CB-85ED-D8ECAAB7193A}">
-  <dimension ref="A1:BD113"/>
+  <dimension ref="A1:BE113"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="XEN1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J103" sqref="J103:XFD103"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9430,7 +9561,7 @@
     <col min="16" max="16384" width="10.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9476,8 +9607,134 @@
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -9512,7 +9769,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1904</v>
       </c>
@@ -9547,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>19001</v>
       </c>
@@ -9582,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>19003</v>
       </c>
@@ -9617,7 +9874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>19005</v>
       </c>
@@ -9652,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>19007</v>
       </c>
@@ -9687,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>19009</v>
       </c>
@@ -9722,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>19011</v>
       </c>
@@ -9757,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>19013</v>
       </c>
@@ -9792,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>19015</v>
       </c>
@@ -9827,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>19017</v>
       </c>
@@ -9862,7 +10119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>19019</v>
       </c>
@@ -9897,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>19021</v>
       </c>
@@ -9932,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>19023</v>
       </c>
@@ -9967,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>19025</v>
       </c>

--- a/Results/2020/Primaries/Republicans.xlsx
+++ b/Results/2020/Primaries/Republicans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007B770F-0343-4113-B12D-B3E76F926AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABA3EC4-CAC7-4810-B36E-245F95381FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="206">
   <si>
     <t>id</t>
   </si>
@@ -1683,7 +1683,7 @@
         <v>31464</v>
       </c>
       <c r="I2" s="2">
-        <f>H2/E2</f>
+        <f>IF(E2=0,"0.0%",H2/E2)</f>
         <v>0.97144092130044146</v>
       </c>
       <c r="J2" s="6">
@@ -1696,7 +1696,7 @@
         <v>426</v>
       </c>
       <c r="M2" s="2">
-        <f>L2/E2</f>
+        <f>IF(E2=0,"0.0%",L2/E2)</f>
         <v>1.3152613541634505E-2</v>
       </c>
       <c r="N2" s="6">
@@ -1709,7 +1709,7 @@
         <v>348</v>
       </c>
       <c r="Q2" s="2">
-        <f>P2/E2</f>
+        <f>IF(E2=0,"0.0%",P2/E2)</f>
         <v>1.0744388526969033E-2</v>
       </c>
       <c r="R2" s="6">
@@ -1722,7 +1722,7 @@
         <v>151</v>
       </c>
       <c r="U2" s="2">
-        <f>T2/E2</f>
+        <f>IF(E2=0,"0.0%",T2/E2)</f>
         <v>4.6620766309549535E-3</v>
       </c>
       <c r="V2" s="6">
@@ -1755,7 +1755,7 @@
         <v>129696</v>
       </c>
       <c r="I3" s="2">
-        <f>H3/E3</f>
+        <f>IF(E3=0,"0.0%",H3/E3)</f>
         <v>0.85550322555111413</v>
       </c>
       <c r="J3" s="6">
@@ -1768,7 +1768,7 @@
         <v>13787</v>
       </c>
       <c r="M3" s="2">
-        <f>L3/E3</f>
+        <f>IF(E3=0,"0.0%",L3/E3)</f>
         <v>9.0942072004327121E-2</v>
       </c>
       <c r="N3" s="6">
@@ -1781,7 +1781,7 @@
         <v>8119</v>
       </c>
       <c r="Q3" s="2">
-        <f>P3/E3</f>
+        <f>IF(E3=0,"0.0%",P3/E3)</f>
         <v>5.3554702444558781E-2</v>
       </c>
       <c r="R3" s="6">
@@ -2648,7 +2648,7 @@
         <v>110</v>
       </c>
       <c r="F2" s="2">
-        <f>E2/C2</f>
+        <f>IF(C2=0,"0.0%",E2/C2)</f>
         <v>0.99099099099099097</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2658,28 +2658,8 @@
         <v>1</v>
       </c>
       <c r="I2" s="2">
-        <f>H2/C2</f>
+        <f>IF(C2=0,"0.0%",H2/C2)</f>
         <v>9.0090090090090089E-3</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <f>K2/C2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <f>N2/C2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2699,7 +2679,7 @@
         <v>59</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="0">E3/C3</f>
+        <f t="shared" ref="F3:F66" si="0">IF(C3=0,"0.0%",E3/C3)</f>
         <v>0.85507246376811596</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2709,7 +2689,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="1">H3/C3</f>
+        <f t="shared" ref="I3:I66" si="1">IF(C3=0,"0.0%",H3/C3)</f>
         <v>5.7971014492753624E-2</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -2719,7 +2699,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L66" si="2">K3/C3</f>
+        <f t="shared" ref="L3:L64" si="2">IF(C3=0,"0.0%",K3/C3)</f>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -2729,7 +2709,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O66" si="3">N3/C3</f>
+        <f t="shared" ref="O3:O64" si="3">IF(C3=0,"0.0%",N3/C3)</f>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
@@ -2763,26 +2743,6 @@
         <f t="shared" si="1"/>
         <v>6.3291139240506328E-3</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -2814,26 +2774,6 @@
         <f t="shared" si="1"/>
         <v>4.2735042735042739E-3</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2865,26 +2805,6 @@
         <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -2926,16 +2846,6 @@
         <f t="shared" si="2"/>
         <v>3.1847133757961785E-3</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -2977,16 +2887,6 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -3120,26 +3020,6 @@
         <f t="shared" si="1"/>
         <v>1.092896174863388E-2</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -3161,36 +3041,6 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -3232,16 +3082,6 @@
         <f t="shared" si="2"/>
         <v>5.1813471502590676E-3</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -3263,36 +3103,6 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -3324,26 +3134,6 @@
         <f t="shared" si="1"/>
         <v>5.5248618784530384E-3</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -3385,16 +3175,6 @@
         <f t="shared" si="2"/>
         <v>4.7393364928909956E-3</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -3417,33 +3197,13 @@
         <v>0.99242424242424243</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="6">
-        <v>2</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" si="3"/>
         <v>7.575757575757576E-3</v>
       </c>
     </row>
@@ -3487,16 +3247,6 @@
         <f t="shared" si="2"/>
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -3528,26 +3278,6 @@
         <f t="shared" si="1"/>
         <v>3.1645569620253167E-2</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -3589,16 +3319,6 @@
         <f t="shared" si="2"/>
         <v>7.4074074074074077E-3</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -3640,16 +3360,6 @@
         <f t="shared" si="2"/>
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -3672,33 +3382,13 @@
         <v>0.9939393939393939</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="H22" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="6">
-        <v>1</v>
-      </c>
-      <c r="O22" s="2">
-        <f t="shared" si="3"/>
         <v>6.0606060606060606E-3</v>
       </c>
     </row>
@@ -3742,16 +3432,6 @@
         <f t="shared" si="2"/>
         <v>1.3636363636363636E-2</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -3784,23 +3464,13 @@
         <v>5.7803468208092483E-3</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="K24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="6">
-        <v>1</v>
-      </c>
-      <c r="O24" s="2">
-        <f t="shared" si="3"/>
         <v>1.9267822736030828E-3</v>
       </c>
     </row>
@@ -3834,26 +3504,6 @@
         <f t="shared" si="1"/>
         <v>6.993006993006993E-3</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="6">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -3936,26 +3586,6 @@
         <f t="shared" si="1"/>
         <v>6.5789473684210523E-3</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -3987,26 +3617,6 @@
         <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K28" s="6">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="29" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -4048,16 +3658,6 @@
         <f t="shared" si="2"/>
         <v>1.3605442176870748E-2</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -4089,26 +3689,6 @@
         <f t="shared" si="1"/>
         <v>5.7142857142857143E-3</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -4140,26 +3720,6 @@
         <f t="shared" si="1"/>
         <v>7.0422535211267607E-3</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K31" s="6">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
-      </c>
-      <c r="O31" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="32" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -4232,36 +3792,6 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K33" s="6">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N33" s="6">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
@@ -4354,16 +3884,6 @@
         <f t="shared" si="2"/>
         <v>8.9285714285714281E-3</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N35" s="6">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="36" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
@@ -4385,36 +3905,6 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="37" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
@@ -4446,26 +3936,6 @@
         <f t="shared" si="1"/>
         <v>1.8691588785046728E-2</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="38" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -4497,26 +3967,6 @@
         <f t="shared" si="1"/>
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
@@ -4549,23 +3999,13 @@
         <v>5.8479532163742687E-3</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="K39" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="6">
-        <v>2</v>
-      </c>
-      <c r="O39" s="2">
-        <f t="shared" si="3"/>
         <v>1.1695906432748537E-2</v>
       </c>
     </row>
@@ -4600,23 +4040,13 @@
         <v>6.4516129032258064E-3</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="K40" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N40" s="6">
-        <v>1</v>
-      </c>
-      <c r="O40" s="2">
-        <f t="shared" si="3"/>
         <v>6.4516129032258064E-3</v>
       </c>
     </row>
@@ -4701,26 +4131,6 @@
         <f t="shared" si="1"/>
         <v>5.9880239520958087E-3</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N42" s="6">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="43" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
@@ -4753,23 +4163,13 @@
         <v>1.3333333333333334E-2</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="K43" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N43" s="6">
-        <v>1</v>
-      </c>
-      <c r="O43" s="2">
-        <f t="shared" si="3"/>
         <v>3.3333333333333335E-3</v>
       </c>
     </row>
@@ -4864,16 +4264,6 @@
         <f t="shared" si="2"/>
         <v>3.3003300330033004E-3</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N45" s="6">
-        <v>0</v>
-      </c>
-      <c r="O45" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
@@ -4905,26 +4295,6 @@
         <f t="shared" si="1"/>
         <v>8.4033613445378148E-3</v>
       </c>
-      <c r="J46" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N46" s="6">
-        <v>0</v>
-      </c>
-      <c r="O46" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="47" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
@@ -4956,26 +4326,6 @@
         <f t="shared" si="1"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="J47" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N47" s="6">
-        <v>0</v>
-      </c>
-      <c r="O47" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="48" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
@@ -5008,23 +4358,13 @@
         <v>7.4074074074074077E-3</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="K48" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N48" s="6">
-        <v>1</v>
-      </c>
-      <c r="O48" s="2">
-        <f t="shared" si="3"/>
         <v>7.4074074074074077E-3</v>
       </c>
     </row>
@@ -5058,26 +4398,6 @@
         <f t="shared" si="1"/>
         <v>1.8604651162790697E-2</v>
       </c>
-      <c r="J49" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N49" s="6">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="50" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -5100,33 +4420,13 @@
         <v>0.99512195121951219</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="H50" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K50" s="6">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N50" s="6">
-        <v>1</v>
-      </c>
-      <c r="O50" s="2">
-        <f t="shared" si="3"/>
         <v>4.8780487804878049E-3</v>
       </c>
     </row>
@@ -5221,16 +4521,6 @@
         <f t="shared" si="2"/>
         <v>5.6179775280898875E-3</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0</v>
-      </c>
-      <c r="O52" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="53" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -5313,26 +4603,6 @@
         <f t="shared" si="1"/>
         <v>1.0169491525423728E-2</v>
       </c>
-      <c r="J54" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N54" s="6">
-        <v>0</v>
-      </c>
-      <c r="O54" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="55" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
@@ -5365,23 +4635,13 @@
         <v>5.8479532163742687E-3</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="K55" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N55" s="6">
-        <v>1</v>
-      </c>
-      <c r="O55" s="2">
-        <f t="shared" si="3"/>
         <v>5.8479532163742687E-3</v>
       </c>
     </row>
@@ -5467,23 +4727,13 @@
         <v>2.617801047120419E-3</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="K57" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N57" s="6">
-        <v>3</v>
-      </c>
-      <c r="O57" s="2">
-        <f t="shared" si="3"/>
         <v>7.8534031413612562E-3</v>
       </c>
     </row>
@@ -5578,16 +4828,6 @@
         <f t="shared" si="2"/>
         <v>6.993006993006993E-3</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N59" s="6">
-        <v>0</v>
-      </c>
-      <c r="O59" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="60" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -5619,26 +4859,6 @@
         <f t="shared" si="1"/>
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="J60" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K60" s="6">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N60" s="6">
-        <v>0</v>
-      </c>
-      <c r="O60" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="61" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -5660,36 +4880,6 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G61" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H61" s="6">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K61" s="6">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N61" s="6">
-        <v>0</v>
-      </c>
-      <c r="O61" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="62" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
@@ -5731,16 +4921,6 @@
         <f t="shared" si="2"/>
         <v>7.0422535211267607E-3</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N62" s="6">
-        <v>0</v>
-      </c>
-      <c r="O62" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="63" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
@@ -5782,16 +4962,6 @@
         <f t="shared" si="2"/>
         <v>2.6881720430107529E-3</v>
       </c>
-      <c r="M63" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N63" s="6">
-        <v>0</v>
-      </c>
-      <c r="O63" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="64" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -5874,26 +5044,6 @@
         <f t="shared" si="1"/>
         <v>7.1258907363420431E-3</v>
       </c>
-      <c r="J65" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K65" s="6">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N65" s="6">
-        <v>0</v>
-      </c>
-      <c r="O65" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="66" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
@@ -5932,18 +5082,8 @@
         <v>2</v>
       </c>
       <c r="L66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L66:L110" si="4">IF(C66=0,"0.0%",K66/C66)</f>
         <v>8.23045267489712E-3</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N66" s="6">
-        <v>0</v>
-      </c>
-      <c r="O66" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5963,7 +5103,7 @@
         <v>78</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F110" si="4">E67/C67</f>
+        <f t="shared" ref="F67:F110" si="5">IF(C67=0,"0.0%",E67/C67)</f>
         <v>0.98734177215189878</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -5973,28 +5113,8 @@
         <v>1</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I110" si="5">H67/C67</f>
+        <f t="shared" ref="I67:I110" si="6">IF(C67=0,"0.0%",H67/C67)</f>
         <v>1.2658227848101266E-2</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K67" s="6">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2">
-        <f t="shared" ref="L67:L110" si="6">K67/C67</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N67" s="6">
-        <v>0</v>
-      </c>
-      <c r="O67" s="2">
-        <f t="shared" ref="O67:O100" si="7">N67/C67</f>
-        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6014,37 +5134,17 @@
         <v>69</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9452054794520548</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="H68" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K68" s="6">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N68" s="6">
-        <v>4</v>
-      </c>
-      <c r="O68" s="2">
-        <f t="shared" si="7"/>
         <v>5.4794520547945202E-2</v>
       </c>
     </row>
@@ -6065,38 +5165,8 @@
         <v>139</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H69" s="6">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K69" s="6">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N69" s="6">
-        <v>0</v>
-      </c>
-      <c r="O69" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6116,38 +5186,8 @@
         <v>75</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" s="6">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K70" s="6">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N70" s="6">
-        <v>0</v>
-      </c>
-      <c r="O70" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6167,7 +5207,7 @@
         <v>371</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98408488063660482</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -6177,28 +5217,8 @@
         <v>6</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5915119363395226E-2</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K71" s="6">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N71" s="6">
-        <v>0</v>
-      </c>
-      <c r="O71" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6218,7 +5238,7 @@
         <v>195</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95121951219512191</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -6228,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="J72" s="5" t="s">
@@ -6238,7 +5258,7 @@
         <v>4</v>
       </c>
       <c r="L72" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.9512195121951219E-2</v>
       </c>
       <c r="M72" s="5" t="s">
@@ -6248,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="O72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="O72:O100" si="7">IF(C72=0,"0.0%",N72/C72)</f>
         <v>4.8780487804878049E-3</v>
       </c>
     </row>
@@ -6269,7 +5289,7 @@
         <v>77</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.97468354430379744</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -6279,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="J73" s="5" t="s">
@@ -6289,18 +5309,8 @@
         <v>1</v>
       </c>
       <c r="L73" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.2658227848101266E-2</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N73" s="6">
-        <v>0</v>
-      </c>
-      <c r="O73" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6320,7 +5330,7 @@
         <v>179</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99444444444444446</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -6330,28 +5340,8 @@
         <v>1</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K74" s="6">
-        <v>0</v>
-      </c>
-      <c r="L74" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N74" s="6">
-        <v>0</v>
-      </c>
-      <c r="O74" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6371,7 +5361,7 @@
         <v>98</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98989898989898994</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -6381,28 +5371,8 @@
         <v>1</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0101010101010102E-2</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K75" s="6">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N75" s="6">
-        <v>0</v>
-      </c>
-      <c r="O75" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6422,7 +5392,7 @@
         <v>363</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99725274725274726</v>
       </c>
       <c r="G76" s="5" t="s">
@@ -6432,28 +5402,8 @@
         <v>1</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7472527472527475E-3</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K76" s="6">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N76" s="6">
-        <v>0</v>
-      </c>
-      <c r="O76" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6473,38 +5423,8 @@
         <v>120</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K77" s="6">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N77" s="6">
-        <v>0</v>
-      </c>
-      <c r="O77" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6524,7 +5444,7 @@
         <v>4171</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95907105081627964</v>
       </c>
       <c r="G78" s="5" t="s">
@@ -6534,7 +5454,7 @@
         <v>85</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9544722924810302E-2</v>
       </c>
       <c r="J78" s="5" t="s">
@@ -6544,7 +5464,7 @@
         <v>76</v>
       </c>
       <c r="L78" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.7475281673948035E-2</v>
       </c>
       <c r="M78" s="5" t="s">
@@ -6575,7 +5495,7 @@
         <v>772</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99228791773778924</v>
       </c>
       <c r="G79" s="5" t="s">
@@ -6585,7 +5505,7 @@
         <v>4</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1413881748071976E-3</v>
       </c>
       <c r="J79" s="5" t="s">
@@ -6595,18 +5515,8 @@
         <v>2</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.5706940874035988E-3</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N79" s="6">
-        <v>0</v>
-      </c>
-      <c r="O79" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6626,7 +5536,7 @@
         <v>205</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95794392523364491</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -6636,7 +5546,7 @@
         <v>5</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.336448598130841E-2</v>
       </c>
       <c r="J80" s="5" t="s">
@@ -6646,7 +5556,7 @@
         <v>3</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.4018691588785047E-2</v>
       </c>
       <c r="M80" s="5" t="s">
@@ -6677,7 +5587,7 @@
         <v>106</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99065420560747663</v>
       </c>
       <c r="G81" s="5" t="s">
@@ -6687,28 +5597,8 @@
         <v>1</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3457943925233638E-3</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K81" s="6">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N81" s="6">
-        <v>0</v>
-      </c>
-      <c r="O81" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6728,7 +5618,7 @@
         <v>97</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.97979797979797978</v>
       </c>
       <c r="G82" s="5" t="s">
@@ -6738,28 +5628,8 @@
         <v>2</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0202020202020204E-2</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K82" s="6">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N82" s="6">
-        <v>0</v>
-      </c>
-      <c r="O82" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6779,7 +5649,7 @@
         <v>1359</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94374999999999998</v>
       </c>
       <c r="G83" s="5" t="s">
@@ -6789,7 +5659,7 @@
         <v>38</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="J83" s="5" t="s">
@@ -6799,7 +5669,7 @@
         <v>25</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="M83" s="5" t="s">
@@ -6830,38 +5700,8 @@
         <v>149</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H84" s="6">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K84" s="6">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N84" s="6">
-        <v>0</v>
-      </c>
-      <c r="O84" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6881,7 +5721,7 @@
         <v>403</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94158878504672894</v>
       </c>
       <c r="G85" s="5" t="s">
@@ -6891,7 +5731,7 @@
         <v>15</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5046728971962614E-2</v>
       </c>
       <c r="J85" s="5" t="s">
@@ -6901,7 +5741,7 @@
         <v>8</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="M85" s="5" t="s">
@@ -6932,7 +5772,7 @@
         <v>855</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94684385382059799</v>
       </c>
       <c r="G86" s="5" t="s">
@@ -6942,7 +5782,7 @@
         <v>31</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4330011074197121E-2</v>
       </c>
       <c r="J86" s="5" t="s">
@@ -6952,7 +5792,7 @@
         <v>14</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.5503875968992248E-2</v>
       </c>
       <c r="M86" s="5" t="s">
@@ -6983,7 +5823,7 @@
         <v>207</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98571428571428577</v>
       </c>
       <c r="G87" s="5" t="s">
@@ -6993,28 +5833,8 @@
         <v>3</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K87" s="6">
-        <v>0</v>
-      </c>
-      <c r="L87" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N87" s="6">
-        <v>0</v>
-      </c>
-      <c r="O87" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7034,38 +5854,8 @@
         <v>57</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H88" s="6">
-        <v>0</v>
-      </c>
-      <c r="I88" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K88" s="6">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N88" s="6">
-        <v>0</v>
-      </c>
-      <c r="O88" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7085,7 +5875,7 @@
         <v>144</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98630136986301364</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -7095,27 +5885,17 @@
         <v>1</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8493150684931503E-3</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="K89" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N89" s="6">
-        <v>1</v>
-      </c>
-      <c r="O89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.8493150684931503E-3</v>
       </c>
     </row>
@@ -7136,7 +5916,7 @@
         <v>130</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98484848484848486</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -7146,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.575757575757576E-3</v>
       </c>
       <c r="J90" s="5" t="s">
@@ -7156,18 +5936,8 @@
         <v>1</v>
       </c>
       <c r="L90" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>7.575757575757576E-3</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N90" s="6">
-        <v>0</v>
-      </c>
-      <c r="O90" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7187,7 +5957,7 @@
         <v>331</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99399399399399402</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -7197,28 +5967,8 @@
         <v>2</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.006006006006006E-3</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K91" s="6">
-        <v>0</v>
-      </c>
-      <c r="L91" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N91" s="6">
-        <v>0</v>
-      </c>
-      <c r="O91" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7238,7 +5988,7 @@
         <v>737</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98005319148936165</v>
       </c>
       <c r="G92" s="5" t="s">
@@ -7248,7 +5998,7 @@
         <v>8</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0638297872340425E-2</v>
       </c>
       <c r="J92" s="5" t="s">
@@ -7258,7 +6008,7 @@
         <v>4</v>
       </c>
       <c r="L92" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5.3191489361702126E-3</v>
       </c>
       <c r="M92" s="5" t="s">
@@ -7289,7 +6039,7 @@
         <v>315</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99056603773584906</v>
       </c>
       <c r="G93" s="5" t="s">
@@ -7299,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2893081761006293E-3</v>
       </c>
       <c r="J93" s="5" t="s">
@@ -7309,18 +6059,8 @@
         <v>1</v>
       </c>
       <c r="L93" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3.1446540880503146E-3</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N93" s="6">
-        <v>0</v>
-      </c>
-      <c r="O93" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7340,7 +6080,7 @@
         <v>143</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98620689655172411</v>
       </c>
       <c r="G94" s="5" t="s">
@@ -7350,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8965517241379309E-3</v>
       </c>
       <c r="J94" s="5" t="s">
@@ -7360,18 +6100,8 @@
         <v>1</v>
       </c>
       <c r="L94" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>6.8965517241379309E-3</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N94" s="6">
-        <v>0</v>
-      </c>
-      <c r="O94" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7391,7 +6121,7 @@
         <v>317</v>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.96941896024464835</v>
       </c>
       <c r="G95" s="5" t="s">
@@ -7401,28 +6131,8 @@
         <v>10</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0581039755351681E-2</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K95" s="6">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N95" s="6">
-        <v>0</v>
-      </c>
-      <c r="O95" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7442,7 +6152,7 @@
         <v>158</v>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99371069182389937</v>
       </c>
       <c r="G96" s="5" t="s">
@@ -7452,28 +6162,8 @@
         <v>1</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2893081761006293E-3</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K96" s="6">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N96" s="6">
-        <v>0</v>
-      </c>
-      <c r="O96" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7493,7 +6183,7 @@
         <v>178</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94680851063829785</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -7503,7 +6193,7 @@
         <v>8</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="J97" s="5" t="s">
@@ -7513,18 +6203,8 @@
         <v>2</v>
       </c>
       <c r="L97" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.0638297872340425E-2</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N97" s="6">
-        <v>0</v>
-      </c>
-      <c r="O97" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7544,7 +6224,7 @@
         <v>915</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98705501618122982</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -7554,7 +6234,7 @@
         <v>5</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3937432578209281E-3</v>
       </c>
       <c r="J98" s="5" t="s">
@@ -7564,7 +6244,7 @@
         <v>4</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.3149946062567418E-3</v>
       </c>
       <c r="M98" s="5" t="s">
@@ -7595,38 +6275,8 @@
         <v>74</v>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H99" s="6">
-        <v>0</v>
-      </c>
-      <c r="I99" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K99" s="6">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N99" s="6">
-        <v>0</v>
-      </c>
-      <c r="O99" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7646,7 +6296,7 @@
         <v>121</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.96799999999999997</v>
       </c>
       <c r="G100" s="5" t="s">
@@ -7656,7 +6306,7 @@
         <v>2</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6E-2</v>
       </c>
       <c r="J100" s="5" t="s">
@@ -7666,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="M100" s="5" t="s">
@@ -7697,7 +6347,7 @@
         <v>7712</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86370254227797061</v>
       </c>
       <c r="G101" s="5" t="s">
@@ -7707,7 +6357,7 @@
         <v>683</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.6492328368238327E-2</v>
       </c>
       <c r="J101" s="5" t="s">
@@ -7717,7 +6367,7 @@
         <v>534</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5.9805129353791016E-2</v>
       </c>
     </row>
@@ -7738,7 +6388,7 @@
         <v>5541</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85259270657024155</v>
       </c>
       <c r="G102" s="5" t="s">
@@ -7748,7 +6398,7 @@
         <v>589</v>
       </c>
       <c r="I102" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0629327588859818E-2</v>
       </c>
       <c r="J102" s="5" t="s">
@@ -7758,7 +6408,7 @@
         <v>369</v>
       </c>
       <c r="L102" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5.67779658408986E-2</v>
       </c>
     </row>
@@ -7779,7 +6429,7 @@
         <v>5952</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84389621437686091</v>
       </c>
       <c r="G103" s="5" t="s">
@@ -7789,7 +6439,7 @@
         <v>650</v>
       </c>
       <c r="I103" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2159364809301009E-2</v>
       </c>
       <c r="J103" s="5" t="s">
@@ -7799,7 +6449,7 @@
         <v>451</v>
       </c>
       <c r="L103" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>6.3944420813838082E-2</v>
       </c>
     </row>
@@ -7820,7 +6470,7 @@
         <v>3024</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86252139189960064</v>
       </c>
       <c r="G104" s="5" t="s">
@@ -7830,7 +6480,7 @@
         <v>213</v>
       </c>
       <c r="I104" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.0752994865944099E-2</v>
       </c>
       <c r="J104" s="5" t="s">
@@ -7840,7 +6490,7 @@
         <v>269</v>
       </c>
       <c r="L104" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>7.6725613234455217E-2</v>
       </c>
     </row>
@@ -7861,7 +6511,7 @@
         <v>6860</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82870258516549888</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -7871,7 +6521,7 @@
         <v>738</v>
       </c>
       <c r="I105" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.915196907465571E-2</v>
       </c>
       <c r="J105" s="5" t="s">
@@ -7881,7 +6531,7 @@
         <v>680</v>
       </c>
       <c r="L105" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>8.2145445759845379E-2</v>
       </c>
     </row>
@@ -7902,7 +6552,7 @@
         <v>37437</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85666231894007006</v>
       </c>
       <c r="G106" s="5" t="s">
@@ -7912,7 +6562,7 @@
         <v>4184</v>
       </c>
       <c r="I106" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5741516212443645E-2</v>
       </c>
       <c r="J106" s="5" t="s">
@@ -7922,7 +6572,7 @@
         <v>2080</v>
       </c>
       <c r="L106" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.7596164847486327E-2</v>
       </c>
     </row>
@@ -7943,7 +6593,7 @@
         <v>15309</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85482159807917801</v>
       </c>
       <c r="G107" s="5" t="s">
@@ -7953,7 +6603,7 @@
         <v>1593</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.8949690099949741E-2</v>
       </c>
       <c r="J107" s="5" t="s">
@@ -7963,7 +6613,7 @@
         <v>1007</v>
       </c>
       <c r="L107" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5.622871182087219E-2</v>
       </c>
     </row>
@@ -7984,7 +6634,7 @@
         <v>33758</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86066848532748641</v>
       </c>
       <c r="G108" s="5" t="s">
@@ -7994,7 +6644,7 @@
         <v>3748</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5556178772658901E-2</v>
       </c>
       <c r="J108" s="5" t="s">
@@ -8004,7 +6654,7 @@
         <v>1717</v>
       </c>
       <c r="L108" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.3775335899854675E-2</v>
       </c>
     </row>
@@ -8025,7 +6675,7 @@
         <v>10072</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85017303958808133</v>
       </c>
       <c r="G109" s="5" t="s">
@@ -8035,7 +6685,7 @@
         <v>1047</v>
       </c>
       <c r="I109" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.8376804254241575E-2</v>
       </c>
       <c r="J109" s="5" t="s">
@@ -8045,7 +6695,7 @@
         <v>728</v>
       </c>
       <c r="L109" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>6.1450156157677051E-2</v>
       </c>
     </row>
@@ -8066,7 +6716,7 @@
         <v>4031</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86557869873309001</v>
       </c>
       <c r="G110" s="5" t="s">
@@ -8076,7 +6726,7 @@
         <v>342</v>
       </c>
       <c r="I110" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.343783551642688E-2</v>
       </c>
       <c r="J110" s="5" t="s">
@@ -8086,12 +6736,12 @@
         <v>284</v>
       </c>
       <c r="L110" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>6.0983465750483141E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O110" xr:uid="{982B2688-0D8D-402B-A06B-0B49F4516FDA}"/>
+  <autoFilter ref="A1:O110" xr:uid="{94CEABF2-003E-462B-A2FC-0CC7A4F00517}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8102,8 +6752,8 @@
   <dimension ref="A1:BE112"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD112"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Results/2020/Primaries/Republicans.xlsx
+++ b/Results/2020/Primaries/Republicans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABA3EC4-CAC7-4810-B36E-245F95381FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B492E974-5C0F-42B5-B84F-CC83BD78049B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="207">
   <si>
     <t>id</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>pcnt18</t>
+  </si>
+  <si>
+    <t>אין תאריך</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2421,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>134</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>88</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>90</v>
       </c>
@@ -2457,10 +2460,10 @@
         <v>141</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>78</v>
       </c>
@@ -2471,10 +2474,10 @@
         <v>141</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>92</v>
       </c>
@@ -2485,10 +2488,10 @@
         <v>141</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>114</v>
       </c>
@@ -2499,10 +2502,10 @@
         <v>141</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>30</v>
       </c>
@@ -2513,10 +2516,28 @@
         <v>141</v>
       </c>
       <c r="D55" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="6">
+        <v>25</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>32</v>
       </c>
@@ -2527,10 +2548,10 @@
         <v>141</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>60</v>
       </c>
@@ -2541,7 +2562,7 @@
         <v>141</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Results/2020/Primaries/Republicans.xlsx
+++ b/Results/2020/Primaries/Republicans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B492E974-5C0F-42B5-B84F-CC83BD78049B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C99752-95F3-4A90-98CE-6E54DCC15405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="207">
   <si>
     <t>id</t>
   </si>
@@ -2550,6 +2550,24 @@
       <c r="D56" s="9" t="s">
         <v>206</v>
       </c>
+      <c r="E56" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="6">
+        <v>50</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6">
+        <v>50</v>
+      </c>
     </row>
     <row r="57" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
